--- a/data/fakecsv/dept_GOOG.xlsx
+++ b/data/fakecsv/dept_GOOG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="109">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,292 +40,280 @@
     <t>GOOG</t>
   </si>
   <si>
-    <t>WN1ZKDTK5EWDFDWKG</t>
-  </si>
-  <si>
-    <t>M7H0N6B55GG62ESX4</t>
-  </si>
-  <si>
-    <t>P4746KWY3MC946KSC</t>
-  </si>
-  <si>
-    <t>DT1HWZE13XSCFUD2R</t>
-  </si>
-  <si>
-    <t>H0PTZHNT77YPEG706</t>
-  </si>
-  <si>
-    <t>DB7N5D9300JEP8488</t>
-  </si>
-  <si>
-    <t>8ER3T0DV3X9XCSZTG</t>
-  </si>
-  <si>
-    <t>0EY1P0RF6MBLRLK24</t>
-  </si>
-  <si>
-    <t>H4XZDTLH0EMTWEKDB</t>
-  </si>
-  <si>
-    <t>U0LUDB820HCJ5KFGX</t>
-  </si>
-  <si>
-    <t>G5SJ06870JAGG0SLK</t>
-  </si>
-  <si>
-    <t>5AZ3D1SN7JY34ZGWY</t>
-  </si>
-  <si>
-    <t>A0S07A0J6RCL7AXZG</t>
-  </si>
-  <si>
-    <t>ZJ4LVCWM6H3FALC70</t>
-  </si>
-  <si>
-    <t>YCT3CSJZ9GUEJSEB8</t>
-  </si>
-  <si>
-    <t>CA4BP9DH6U2H6GE51</t>
-  </si>
-  <si>
-    <t>70UDBTPX5X6FK7AVX</t>
-  </si>
-  <si>
-    <t>Y8GH2YV93PDP2V45R</t>
-  </si>
-  <si>
-    <t>BT33FXELXAB4TJ7DG</t>
-  </si>
-  <si>
-    <t>0C6W524U3E3ZL198F</t>
-  </si>
-  <si>
-    <t>P54XSGHK6NL6G437G</t>
-  </si>
-  <si>
-    <t>BUHPD8M84LL5NZY4T</t>
-  </si>
-  <si>
-    <t>26BNUXGJ7H5TFTL7M</t>
-  </si>
-  <si>
-    <t>LD7RGC5EXHX6U7TRW</t>
-  </si>
-  <si>
-    <t>9T5WU3XT98C1T7GSS</t>
-  </si>
-  <si>
-    <t>RS7BKTPP0W5MVECW8</t>
-  </si>
-  <si>
-    <t>M38N4K4S1NCS0KAY6</t>
-  </si>
-  <si>
-    <t>X7EE8JYV9MDKXAKX4</t>
-  </si>
-  <si>
-    <t>7A491E8Z36W0FHR4S</t>
-  </si>
-  <si>
-    <t>S11H35EW2KEL6MRFN</t>
-  </si>
-  <si>
-    <t>MHX3KJAL13TYXLSGY</t>
-  </si>
-  <si>
-    <t>MKDGH39M61264YESU</t>
-  </si>
-  <si>
-    <t>L5ZP56HM69V9R33US</t>
-  </si>
-  <si>
-    <t>7DH1NFKH411G3WK3V</t>
-  </si>
-  <si>
-    <t>91W2FKAY7DS65SRZ1</t>
-  </si>
-  <si>
-    <t>H1Z15W6Y4S1T8L6XR</t>
-  </si>
-  <si>
-    <t>AS3V36JM88WL902PE</t>
-  </si>
-  <si>
-    <t>N2VLURW40VYAM7RPP</t>
-  </si>
-  <si>
-    <t>FENE7PTL3S381JV2M</t>
-  </si>
-  <si>
-    <t>UUMCY87G8LUHZ6VTX</t>
-  </si>
-  <si>
-    <t>30U8UMF45897JTS7F</t>
-  </si>
-  <si>
-    <t>YJ9EKDYT4PRTX3FK9</t>
-  </si>
-  <si>
-    <t>YPBBBJ4RXJ5GV0ST3</t>
-  </si>
-  <si>
-    <t>HW3RBYXXXHYRRHAXF</t>
-  </si>
-  <si>
-    <t>1J4VEDTB16CKFXW31</t>
-  </si>
-  <si>
-    <t>961F8ZND7YC1NJ9K4</t>
-  </si>
-  <si>
-    <t>DN2S8KZR6UB5DA849</t>
-  </si>
-  <si>
-    <t>S7F4JLHVXMVLU4AM8</t>
-  </si>
-  <si>
-    <t>Eric Blake</t>
-  </si>
-  <si>
-    <t>Teresa Young</t>
-  </si>
-  <si>
-    <t>Sharon Bell</t>
-  </si>
-  <si>
-    <t>Andrew Martin</t>
-  </si>
-  <si>
-    <t>Christopher Foster</t>
-  </si>
-  <si>
-    <t>Laura Harris</t>
-  </si>
-  <si>
-    <t>Felicia Davis</t>
-  </si>
-  <si>
-    <t>Morgan Griffin</t>
-  </si>
-  <si>
-    <t>Michael Rogers DDS</t>
-  </si>
-  <si>
-    <t>Robert Price</t>
-  </si>
-  <si>
-    <t>Heidi Madden</t>
-  </si>
-  <si>
-    <t>John Lopez</t>
-  </si>
-  <si>
-    <t>Kenneth Martinez</t>
-  </si>
-  <si>
-    <t>Jessica Lucero</t>
-  </si>
-  <si>
-    <t>Douglas Hooper</t>
-  </si>
-  <si>
-    <t>Joseph Hale</t>
-  </si>
-  <si>
-    <t>Steven Evans</t>
-  </si>
-  <si>
-    <t>Paul Johnson</t>
-  </si>
-  <si>
-    <t>Amanda Steele</t>
-  </si>
-  <si>
-    <t>Donald Gray</t>
-  </si>
-  <si>
-    <t>Jason Evans</t>
-  </si>
-  <si>
-    <t>Juan Ritter</t>
-  </si>
-  <si>
-    <t>Jesse Riggs</t>
-  </si>
-  <si>
-    <t>Donald Alexander</t>
-  </si>
-  <si>
-    <t>Pamela Vega</t>
-  </si>
-  <si>
-    <t>Tracy Williams</t>
-  </si>
-  <si>
-    <t>Ricardo Shelton</t>
-  </si>
-  <si>
-    <t>Michael Rodriguez</t>
-  </si>
-  <si>
-    <t>Tammy Nguyen</t>
-  </si>
-  <si>
-    <t>Christopher Fox</t>
-  </si>
-  <si>
-    <t>Shawn Palmer</t>
-  </si>
-  <si>
-    <t>Terry Castro</t>
-  </si>
-  <si>
-    <t>Chris Moore</t>
-  </si>
-  <si>
-    <t>Christopher Farmer</t>
-  </si>
-  <si>
-    <t>Michael Thompson</t>
-  </si>
-  <si>
-    <t>Ann Smith</t>
-  </si>
-  <si>
-    <t>Jesus Ferguson</t>
-  </si>
-  <si>
-    <t>Jason Roy</t>
-  </si>
-  <si>
-    <t>John Lee PhD</t>
-  </si>
-  <si>
-    <t>Lindsay Reynolds</t>
-  </si>
-  <si>
-    <t>James Hendrix</t>
-  </si>
-  <si>
-    <t>Paul Lane</t>
-  </si>
-  <si>
-    <t>Pamela Nichols</t>
-  </si>
-  <si>
-    <t>Rebecca Wells</t>
-  </si>
-  <si>
-    <t>Erika Smith</t>
-  </si>
-  <si>
-    <t>Nancy Miller</t>
-  </si>
-  <si>
-    <t>Jessica Lopez</t>
-  </si>
-  <si>
-    <t>Antonio Richardson</t>
+    <t>R2J0PNN64H944P26B</t>
+  </si>
+  <si>
+    <t>95F33XSJ5HEK4WCMX</t>
+  </si>
+  <si>
+    <t>4F244SMY5SPZPD94K</t>
+  </si>
+  <si>
+    <t>WWN1A7K6XL3PHBP9F</t>
+  </si>
+  <si>
+    <t>KDC2AYNB80WVLA7RG</t>
+  </si>
+  <si>
+    <t>M8DD3C0W9AK97USV4</t>
+  </si>
+  <si>
+    <t>Z5WAVBLN1KT9CL40A</t>
+  </si>
+  <si>
+    <t>WY6BJZEL54JXE4T8F</t>
+  </si>
+  <si>
+    <t>20211K252ZU1EVEGD</t>
+  </si>
+  <si>
+    <t>KMAL3TVU4118BV71A</t>
+  </si>
+  <si>
+    <t>CKMN9W931N868WRDU</t>
+  </si>
+  <si>
+    <t>5X5YPK6W1268R9CBP</t>
+  </si>
+  <si>
+    <t>ESTMNH5M8F6XS60DJ</t>
+  </si>
+  <si>
+    <t>S94AEHMR6M2W4V0BP</t>
+  </si>
+  <si>
+    <t>K3R92PKLXJ5UY3NS4</t>
+  </si>
+  <si>
+    <t>R3A88LT38D5J1L9UX</t>
+  </si>
+  <si>
+    <t>H0HZ4L131MKM3X9S4</t>
+  </si>
+  <si>
+    <t>MMXWYC607LZ7ACCA6</t>
+  </si>
+  <si>
+    <t>XJ8RZ4KV5UUSGTUK2</t>
+  </si>
+  <si>
+    <t>GLTMJSS6X7P6NBEDL</t>
+  </si>
+  <si>
+    <t>H9GXAA6K888E4NRE0</t>
+  </si>
+  <si>
+    <t>9JDC4T287TAUSHZUA</t>
+  </si>
+  <si>
+    <t>D6DN8Z064VGPV939K</t>
+  </si>
+  <si>
+    <t>A7GS8C5E198FZ575E</t>
+  </si>
+  <si>
+    <t>PDGKNKAS8DHBWWT65</t>
+  </si>
+  <si>
+    <t>AHRHK8UR42B38FDJ2</t>
+  </si>
+  <si>
+    <t>9EHRMEGM9TV28DHTR</t>
+  </si>
+  <si>
+    <t>0T8GS3777WJ0VPTRE</t>
+  </si>
+  <si>
+    <t>VH07X5DS49V168AHN</t>
+  </si>
+  <si>
+    <t>3G1UYMDM3AWRFCXAL</t>
+  </si>
+  <si>
+    <t>LEPFBADR1G41B83L2</t>
+  </si>
+  <si>
+    <t>YES53CXG0Y6CCTK65</t>
+  </si>
+  <si>
+    <t>DM47D0N45WDNKEYP8</t>
+  </si>
+  <si>
+    <t>EDPKVLTR1SCPVGUGX</t>
+  </si>
+  <si>
+    <t>JJ1HDW7D2HBAXHSAL</t>
+  </si>
+  <si>
+    <t>MP0D65ZW6797AE6CA</t>
+  </si>
+  <si>
+    <t>66RCDJ347PC73LYDV</t>
+  </si>
+  <si>
+    <t>XN4PUYXS8BJ525HX9</t>
+  </si>
+  <si>
+    <t>EWBZM6YV67W33MXY9</t>
+  </si>
+  <si>
+    <t>34CK7PCPX159V6PLX</t>
+  </si>
+  <si>
+    <t>M51TFLVN8KVTDNUDF</t>
+  </si>
+  <si>
+    <t>CHGZSPRZ5PWC0MNX7</t>
+  </si>
+  <si>
+    <t>L3UR5ZAF6EEFPVSLW</t>
+  </si>
+  <si>
+    <t>A65SW3N62Z1JPTHT0</t>
+  </si>
+  <si>
+    <t>1SLAT9W11SX6MES83</t>
+  </si>
+  <si>
+    <t>KZDPS6111MPGU1X85</t>
+  </si>
+  <si>
+    <t>Vanessa Sanchez</t>
+  </si>
+  <si>
+    <t>Jordan Harris</t>
+  </si>
+  <si>
+    <t>Jennifer Jimenez</t>
+  </si>
+  <si>
+    <t>Rick Cowan</t>
+  </si>
+  <si>
+    <t>Ernest Campbell</t>
+  </si>
+  <si>
+    <t>Eric Yates</t>
+  </si>
+  <si>
+    <t>Patrick Nguyen</t>
+  </si>
+  <si>
+    <t>Krista Kelly</t>
+  </si>
+  <si>
+    <t>Shannon Ward</t>
+  </si>
+  <si>
+    <t>Regina Carter</t>
+  </si>
+  <si>
+    <t>William Klein</t>
+  </si>
+  <si>
+    <t>Katherine Anderson</t>
+  </si>
+  <si>
+    <t>Mary Diaz</t>
+  </si>
+  <si>
+    <t>Janice Mitchell</t>
+  </si>
+  <si>
+    <t>Krystal Davis</t>
+  </si>
+  <si>
+    <t>Crystal Short</t>
+  </si>
+  <si>
+    <t>Brandy Carter</t>
+  </si>
+  <si>
+    <t>Melissa Turner</t>
+  </si>
+  <si>
+    <t>Henry Mckay</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>Sheri Humphrey</t>
+  </si>
+  <si>
+    <t>Jerry Good</t>
+  </si>
+  <si>
+    <t>Karla Stephenson</t>
+  </si>
+  <si>
+    <t>Jennifer Smith</t>
+  </si>
+  <si>
+    <t>Rachel Lewis</t>
+  </si>
+  <si>
+    <t>Xavier Johnson</t>
+  </si>
+  <si>
+    <t>Barbara Brown</t>
+  </si>
+  <si>
+    <t>Christine Rodriguez</t>
+  </si>
+  <si>
+    <t>Nicholas Moore</t>
+  </si>
+  <si>
+    <t>Lori Figueroa</t>
+  </si>
+  <si>
+    <t>William Spencer</t>
+  </si>
+  <si>
+    <t>Martin Salazar</t>
+  </si>
+  <si>
+    <t>Brandon Gilmore</t>
+  </si>
+  <si>
+    <t>Joshua Johnson</t>
+  </si>
+  <si>
+    <t>Jeffrey Edwards</t>
+  </si>
+  <si>
+    <t>Phillip Edwards</t>
+  </si>
+  <si>
+    <t>Heather Murray</t>
+  </si>
+  <si>
+    <t>Richard Hicks</t>
+  </si>
+  <si>
+    <t>Christopher Bruce</t>
+  </si>
+  <si>
+    <t>Timothy Dunlap</t>
+  </si>
+  <si>
+    <t>Debra Berg</t>
+  </si>
+  <si>
+    <t>Jennifer Sandoval</t>
+  </si>
+  <si>
+    <t>Jessica Evans</t>
+  </si>
+  <si>
+    <t>Crystal Hopkins</t>
+  </si>
+  <si>
+    <t>Melanie Williams</t>
+  </si>
+  <si>
+    <t>Amanda Joyce</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -710,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,13 +735,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>791745</v>
+        <v>979154</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -767,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3">
-        <v>692791</v>
+        <v>969122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -784,16 +772,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>568621</v>
+        <v>251175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -804,16 +792,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5">
-        <v>580051</v>
+        <v>676021</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -827,13 +815,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>476799</v>
+        <v>927516</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -847,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7">
-        <v>530218</v>
+        <v>300860</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -867,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8">
-        <v>130178</v>
+        <v>535759</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -887,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>106544</v>
+        <v>322610</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -907,13 +895,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F10">
-        <v>849583</v>
+        <v>623457</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -927,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F11">
-        <v>819735</v>
+        <v>885809</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -947,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F12">
-        <v>991528</v>
+        <v>140011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -967,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>609030</v>
+        <v>219604</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -987,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>380775</v>
+        <v>225254</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1004,16 +992,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>527434</v>
+        <v>886634</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1024,16 +1012,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F16">
-        <v>850369</v>
+        <v>850299</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1044,16 +1032,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>558747</v>
+        <v>632131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1064,16 +1052,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>556506</v>
+        <v>879468</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1084,16 +1072,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F19">
-        <v>867499</v>
+        <v>918484</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1104,16 +1092,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>191346</v>
+        <v>704570</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1124,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F21">
-        <v>916570</v>
+        <v>952653</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1144,16 +1132,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F22">
-        <v>154805</v>
+        <v>245202</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1164,16 +1152,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F23">
-        <v>690024</v>
+        <v>159969</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1184,16 +1172,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>880425</v>
+        <v>817841</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1204,16 +1192,16 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>465502</v>
+        <v>762291</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1224,16 +1212,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F26">
-        <v>391777</v>
+        <v>577233</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1244,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27">
-        <v>814358</v>
+        <v>283501</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1264,16 +1252,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28">
-        <v>922194</v>
+        <v>785599</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1284,16 +1272,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29">
-        <v>733850</v>
+        <v>782075</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1304,16 +1292,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F30">
-        <v>347597</v>
+        <v>158230</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1324,16 +1312,16 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F31">
-        <v>234095</v>
+        <v>967741</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1344,16 +1332,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F32">
-        <v>659746</v>
+        <v>431047</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1364,16 +1352,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F33">
-        <v>832720</v>
+        <v>779620</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1384,16 +1372,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>926317</v>
+        <v>752645</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1404,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>618183</v>
+        <v>676971</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1424,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>678704</v>
+        <v>593974</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1444,16 +1432,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F37">
-        <v>611606</v>
+        <v>462565</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1464,16 +1452,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F38">
-        <v>165459</v>
+        <v>405480</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1484,16 +1472,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F39">
-        <v>351474</v>
+        <v>377030</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1504,16 +1492,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F40">
-        <v>959460</v>
+        <v>418432</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1524,16 +1512,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F41">
-        <v>692244</v>
+        <v>974014</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1544,16 +1532,16 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F42">
-        <v>824682</v>
+        <v>110773</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1564,16 +1552,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F43">
-        <v>925070</v>
+        <v>955035</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1584,16 +1572,16 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F44">
-        <v>562761</v>
+        <v>984243</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1604,16 +1592,16 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F45">
-        <v>627783</v>
+        <v>896363</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1624,16 +1612,16 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F46">
-        <v>160452</v>
+        <v>761216</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1644,16 +1632,16 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F47">
-        <v>350505</v>
+        <v>762567</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1664,16 +1652,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F48">
-        <v>302863</v>
+        <v>955440</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1684,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F49">
-        <v>961584</v>
+        <v>649438</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1704,16 +1692,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F50">
-        <v>260022</v>
+        <v>226346</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1724,16 +1712,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F51">
-        <v>908689</v>
+        <v>493567</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1744,16 +1732,16 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>943619</v>
+        <v>679761</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1764,16 +1752,16 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F53">
-        <v>530255</v>
+        <v>335926</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1784,16 +1772,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F54">
-        <v>560798</v>
+        <v>433498</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1804,16 +1792,16 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F55">
-        <v>830048</v>
+        <v>319194</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1824,16 +1812,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F56">
-        <v>411167</v>
+        <v>448878</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1844,16 +1832,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F57">
-        <v>306204</v>
+        <v>947355</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1864,16 +1852,16 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F58">
-        <v>854195</v>
+        <v>221753</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1884,16 +1872,16 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F59">
-        <v>212467</v>
+        <v>316799</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1904,16 +1892,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F60">
-        <v>157254</v>
+        <v>120593</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1924,16 +1912,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F61">
-        <v>930616</v>
+        <v>899573</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1944,16 +1932,16 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F62">
-        <v>339601</v>
+        <v>105506</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1964,13 +1952,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1981,13 +1969,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1998,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2015,13 +2003,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2032,13 +2020,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2049,13 +2037,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2066,13 +2054,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2083,13 +2071,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2100,13 +2088,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2117,13 +2105,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2134,13 +2122,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2151,13 +2139,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2168,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2185,13 +2173,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2202,13 +2190,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2219,13 +2207,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2236,13 +2224,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2253,13 +2241,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2270,13 +2258,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2287,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2304,13 +2292,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2321,13 +2309,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2338,13 +2326,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2355,13 +2343,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2372,13 +2360,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2389,13 +2377,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2406,13 +2394,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2423,13 +2411,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2440,13 +2428,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2457,13 +2445,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2474,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2491,13 +2479,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2508,13 +2496,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2525,13 +2513,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2542,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2559,13 +2547,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2576,13 +2564,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2593,13 +2581,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2610,13 +2598,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2627,13 +2615,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2644,13 +2632,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2661,13 +2649,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2678,13 +2666,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2695,13 +2683,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2712,13 +2700,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2729,13 +2717,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2746,13 +2734,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2763,13 +2751,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2780,13 +2768,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E111" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2797,13 +2785,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2814,13 +2802,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2831,13 +2819,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2848,13 +2836,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2865,13 +2853,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2882,13 +2870,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2899,13 +2887,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2916,13 +2904,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2933,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2950,13 +2938,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2967,13 +2955,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2984,13 +2972,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3001,13 +2989,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E124" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3018,13 +3006,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3035,13 +3023,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E126" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3052,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3069,13 +3057,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3086,13 +3074,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D129" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3103,13 +3091,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3120,13 +3108,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3137,13 +3125,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3154,13 +3142,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3171,13 +3159,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3188,13 +3176,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3205,13 +3193,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E136" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3222,13 +3210,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3239,13 +3227,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3256,13 +3244,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E139" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3273,13 +3261,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3290,13 +3278,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3307,13 +3295,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E142" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3324,13 +3312,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E143" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3341,13 +3329,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E144" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3358,13 +3346,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E145" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3375,13 +3363,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D146" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3392,13 +3380,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3409,13 +3397,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E148" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3426,13 +3414,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3443,13 +3431,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E150" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3460,13 +3448,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E151" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3477,13 +3465,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E152" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3494,13 +3482,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D153" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E153" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3511,13 +3499,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E154" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3528,13 +3516,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3545,13 +3533,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3562,13 +3550,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D157" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3579,13 +3567,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D158" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E158" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3596,13 +3584,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D159" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3613,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D160" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3630,13 +3618,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E161" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3647,13 +3635,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D162" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E162" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3664,13 +3652,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D163" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E163" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3681,13 +3669,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E164" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3698,13 +3686,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3715,13 +3703,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D166" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3732,13 +3720,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D167" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E167" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3749,13 +3737,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D168" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E168" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3766,13 +3754,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E169" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3783,13 +3771,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E170" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3800,13 +3788,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E171" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3817,10 +3805,10 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E172" t="s">
         <v>104</v>
@@ -3834,13 +3822,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E173" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3851,13 +3839,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E174" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3868,13 +3856,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D175" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E175" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3885,13 +3873,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D176" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E176" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3902,13 +3890,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D177" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E177" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3919,13 +3907,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E178" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3936,13 +3924,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D179" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E179" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3953,13 +3941,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D180" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3970,13 +3958,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D181" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3987,13 +3975,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D182" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E182" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4004,13 +3992,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E183" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4021,13 +4009,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D184" t="s">
         <v>95</v>
       </c>
       <c r="E184" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4038,13 +4026,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D185" t="s">
         <v>95</v>
       </c>
       <c r="E185" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4055,13 +4043,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E186" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4072,13 +4060,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4089,13 +4077,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D188" t="s">
         <v>96</v>
       </c>
       <c r="E188" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4106,13 +4094,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D189" t="s">
         <v>96</v>
       </c>
       <c r="E189" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4123,13 +4111,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D190" t="s">
         <v>96</v>
       </c>
       <c r="E190" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4140,13 +4128,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D191" t="s">
         <v>96</v>
       </c>
       <c r="E191" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4157,10 +4145,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E192" t="s">
         <v>104</v>
@@ -4174,10 +4162,10 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E193" t="s">
         <v>105</v>
@@ -4194,10 +4182,10 @@
         <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E194" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4211,10 +4199,10 @@
         <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E195" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4225,13 +4213,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4245,10 +4233,10 @@
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E197" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4259,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D198" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E198" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4276,13 +4264,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E199" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4293,13 +4281,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D200" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E200" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4310,13 +4298,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D201" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E201" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4327,13 +4315,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E202" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4344,13 +4332,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E203" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4364,10 +4352,10 @@
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E204" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4378,13 +4366,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4395,285 +4383,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E206" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" t="s">
-        <v>100</v>
-      </c>
-      <c r="E207" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>52</v>
-      </c>
-      <c r="D208" t="s">
-        <v>100</v>
-      </c>
-      <c r="E208" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" t="s">
-        <v>100</v>
-      </c>
-      <c r="E209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>53</v>
-      </c>
-      <c r="D210" t="s">
         <v>101</v>
-      </c>
-      <c r="E210" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>53</v>
-      </c>
-      <c r="D211" t="s">
-        <v>101</v>
-      </c>
-      <c r="E211" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>53</v>
-      </c>
-      <c r="D212" t="s">
-        <v>101</v>
-      </c>
-      <c r="E212" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" t="s">
-        <v>101</v>
-      </c>
-      <c r="E213" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>53</v>
-      </c>
-      <c r="D214" t="s">
-        <v>101</v>
-      </c>
-      <c r="E214" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>53</v>
-      </c>
-      <c r="D215" t="s">
-        <v>101</v>
-      </c>
-      <c r="E215" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>54</v>
-      </c>
-      <c r="D216" t="s">
-        <v>102</v>
-      </c>
-      <c r="E216" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>55</v>
-      </c>
-      <c r="D217" t="s">
-        <v>103</v>
-      </c>
-      <c r="E217" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>55</v>
-      </c>
-      <c r="D218" t="s">
-        <v>103</v>
-      </c>
-      <c r="E218" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>55</v>
-      </c>
-      <c r="D219" t="s">
-        <v>103</v>
-      </c>
-      <c r="E219" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>55</v>
-      </c>
-      <c r="D220" t="s">
-        <v>103</v>
-      </c>
-      <c r="E220" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>55</v>
-      </c>
-      <c r="D221" t="s">
-        <v>103</v>
-      </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>55</v>
-      </c>
-      <c r="D222" t="s">
-        <v>103</v>
-      </c>
-      <c r="E222" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
